--- a/Sample Data/Sample Students.xlsx
+++ b/Sample Data/Sample Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\CBNHS-System\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pader\Desktop\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A9435-0FA0-433E-B7EA-DDA5DB3843CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B6421-F7AF-42E5-B9C9-08AC228664FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{4E318F33-0DDE-4CB1-9FB0-52E9DC6ED003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{4E318F33-0DDE-4CB1-9FB0-52E9DC6ED003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>LRN</t>
   </si>
@@ -43,15 +43,6 @@
     <t>6-F</t>
   </si>
   <si>
-    <t>G7 - Q1</t>
-  </si>
-  <si>
-    <t>G7 - Q2</t>
-  </si>
-  <si>
-    <t>G7 - Q3</t>
-  </si>
-  <si>
     <t>GRADE 7</t>
   </si>
   <si>
@@ -67,34 +58,67 @@
     <t>GRADE 10</t>
   </si>
   <si>
-    <t>G8 - Q1</t>
-  </si>
-  <si>
-    <t>G8 - Q2</t>
-  </si>
-  <si>
-    <t>G8 - Q3</t>
-  </si>
-  <si>
-    <t>G9 - Q1</t>
-  </si>
-  <si>
-    <t>G9 - Q2</t>
-  </si>
-  <si>
-    <t>G9 - Q3</t>
-  </si>
-  <si>
-    <t>G10 - Q1</t>
-  </si>
-  <si>
-    <t>G10 - Q2</t>
-  </si>
-  <si>
-    <t>G10 - Q3</t>
-  </si>
-  <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Grade 6</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ABING, KRELL</t>
+  </si>
+  <si>
+    <t>CHING, TIMOTHY IAN</t>
+  </si>
+  <si>
+    <t>DENIEGA, CHRISTIAN PAUL</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>YBANEZ, JOSHUA ANGEO</t>
+  </si>
+  <si>
+    <t>SERENO, KENNETH JOHN</t>
+  </si>
+  <si>
+    <t>Anggalan,Jessa Mae,Cordova</t>
+  </si>
+  <si>
+    <t>Banlota,Catherine,Parcon</t>
+  </si>
+  <si>
+    <t>Vicente,Joanna Marie,Llorente</t>
+  </si>
+  <si>
+    <t>Ostique,Jaiven May,Añavisa</t>
+  </si>
+  <si>
+    <t>Mintal,Tiffany,Dupalo</t>
+  </si>
+  <si>
+    <t>130057100003</t>
+  </si>
+  <si>
+    <t>129498120009</t>
   </si>
 </sst>
 </file>
@@ -118,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -141,11 +165,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,6 +249,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,118 +589,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E7B025-A526-43EA-9B20-9F730104398B}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
